--- a/predictions полгода до/прогнозы_GP_Neural1.xlsx
+++ b/predictions полгода до/прогнозы_GP_Neural1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17061603.1659407</v>
+        <v>17322905.26012641</v>
       </c>
       <c r="C2" t="n">
-        <v>17123588.43642208</v>
+        <v>17383415.60746645</v>
       </c>
       <c r="D2" t="n">
-        <v>17182079.94833636</v>
+        <v>17440498.40864627</v>
       </c>
       <c r="E2" t="n">
-        <v>17237298.28848338</v>
+        <v>17494373.33475809</v>
       </c>
       <c r="F2" t="n">
-        <v>17289449.68301266</v>
+        <v>17545245.34854996</v>
       </c>
       <c r="G2" t="n">
-        <v>17338726.83540487</v>
+        <v>17593305.61677933</v>
       </c>
       <c r="H2" t="n">
-        <v>17385309.74090946</v>
+        <v>17638732.38779947</v>
       </c>
       <c r="I2" t="n">
-        <v>17429366.47250643</v>
+        <v>17681691.8308978</v>
       </c>
       <c r="J2" t="n">
-        <v>17471053.93490137</v>
+        <v>17722338.83517305</v>
       </c>
       <c r="K2" t="n">
-        <v>17510518.5842514</v>
+        <v>17760817.7667914</v>
       </c>
       <c r="L2" t="n">
-        <v>17547897.11226815</v>
+        <v>17797263.1842749</v>
       </c>
       <c r="M2" t="n">
-        <v>17583317.09409153</v>
+        <v>17831800.51211038</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3023381.958799899</v>
+        <v>3315513.580034077</v>
       </c>
       <c r="C3" t="n">
-        <v>3063284.046952277</v>
+        <v>3357779.050971508</v>
       </c>
       <c r="D3" t="n">
-        <v>3101286.176804006</v>
+        <v>3398001.661226809</v>
       </c>
       <c r="E3" t="n">
-        <v>3137480.56463939</v>
+        <v>3436283.348767489</v>
       </c>
       <c r="F3" t="n">
-        <v>3171956.188537627</v>
+        <v>3472722.162469089</v>
       </c>
       <c r="G3" t="n">
-        <v>3204798.653963685</v>
+        <v>3507412.159698546</v>
       </c>
       <c r="H3" t="n">
-        <v>3236090.112650663</v>
+        <v>3540443.358354151</v>
       </c>
       <c r="I3" t="n">
-        <v>3265909.226121873</v>
+        <v>3571901.733992964</v>
       </c>
       <c r="J3" t="n">
-        <v>3294331.166238099</v>
+        <v>3601869.25384146</v>
       </c>
       <c r="K3" t="n">
-        <v>3321427.646109492</v>
+        <v>3630423.940578759</v>
       </c>
       <c r="L3" t="n">
-        <v>3347266.975567758</v>
+        <v>3657639.959754616</v>
       </c>
       <c r="M3" t="n">
-        <v>3371914.13619715</v>
+        <v>3683587.72557646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1714591.441253841</v>
+        <v>2438593.845391542</v>
       </c>
       <c r="C4" t="n">
-        <v>1723143.554549582</v>
+        <v>2457299.832372427</v>
       </c>
       <c r="D4" t="n">
-        <v>1731245.124709874</v>
+        <v>2475107.995487243</v>
       </c>
       <c r="E4" t="n">
-        <v>1738923.992253534</v>
+        <v>2492064.510360092</v>
       </c>
       <c r="F4" t="n">
-        <v>1746206.017984532</v>
+        <v>2508213.310736805</v>
       </c>
       <c r="G4" t="n">
-        <v>1753115.251582466</v>
+        <v>2523596.17250526</v>
       </c>
       <c r="H4" t="n">
-        <v>1759674.08184918</v>
+        <v>2538252.795667708</v>
       </c>
       <c r="I4" t="n">
-        <v>1765903.371122919</v>
+        <v>2552220.884812087</v>
       </c>
       <c r="J4" t="n">
-        <v>1771822.575983316</v>
+        <v>2565536.228416622</v>
       </c>
       <c r="K4" t="n">
-        <v>1777449.856055416</v>
+        <v>2578232.777116984</v>
       </c>
       <c r="L4" t="n">
-        <v>1782802.172433615</v>
+        <v>2590342.720954984</v>
       </c>
       <c r="M4" t="n">
-        <v>1787895.377023377</v>
+        <v>2601896.565520674</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172308.6313633956</v>
+        <v>14982418.57039979</v>
       </c>
       <c r="C5" t="n">
-        <v>174944.8436356522</v>
+        <v>15050647.58272547</v>
       </c>
       <c r="D5" t="n">
-        <v>177464.0882421732</v>
+        <v>15115308.07116061</v>
       </c>
       <c r="E5" t="n">
-        <v>179871.3033047281</v>
+        <v>15176601.39257962</v>
       </c>
       <c r="F5" t="n">
-        <v>182171.3301703259</v>
+        <v>15234718.25228298</v>
       </c>
       <c r="G5" t="n">
-        <v>184368.8954512849</v>
+        <v>15289839.03310215</v>
       </c>
       <c r="H5" t="n">
-        <v>186468.5968416184</v>
+        <v>15342134.16076863</v>
       </c>
       <c r="I5" t="n">
-        <v>188474.8922309801</v>
+        <v>15391764.49479789</v>
       </c>
       <c r="J5" t="n">
-        <v>190392.0916774906</v>
+        <v>15438881.73595202</v>
       </c>
       <c r="K5" t="n">
-        <v>192224.3518448323</v>
+        <v>15483628.84282899</v>
       </c>
       <c r="L5" t="n">
-        <v>193975.6725448593</v>
+        <v>15526140.45150885</v>
       </c>
       <c r="M5" t="n">
-        <v>195649.8950676173</v>
+        <v>15566543.29334474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6580480.408014178</v>
+        <v>4307805.757517025</v>
       </c>
       <c r="C6" t="n">
-        <v>6613677.437688731</v>
+        <v>4306742.568844169</v>
       </c>
       <c r="D6" t="n">
-        <v>6645112.798247799</v>
+        <v>4305519.313488543</v>
       </c>
       <c r="E6" t="n">
-        <v>6674889.728751868</v>
+        <v>4304165.864905752</v>
       </c>
       <c r="F6" t="n">
-        <v>6703105.537146538</v>
+        <v>4302708.0006999</v>
       </c>
       <c r="G6" t="n">
-        <v>6729851.852177665</v>
+        <v>4301167.913969606</v>
       </c>
       <c r="H6" t="n">
-        <v>6755214.88300366</v>
+        <v>4299564.665834069</v>
       </c>
       <c r="I6" t="n">
-        <v>6779275.682139277</v>
+        <v>4297914.584962778</v>
       </c>
       <c r="J6" t="n">
-        <v>6802110.408233359</v>
+        <v>4296231.619541593</v>
       </c>
       <c r="K6" t="n">
-        <v>6823790.585852049</v>
+        <v>4294527.646758512</v>
       </c>
       <c r="L6" t="n">
-        <v>6844383.360064745</v>
+        <v>4292812.744455971</v>
       </c>
       <c r="M6" t="n">
-        <v>6863951.744113505</v>
+        <v>4291095.429218136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2087416.043724973</v>
+        <v>3996777.871126384</v>
       </c>
       <c r="C7" t="n">
-        <v>2093798.427762713</v>
+        <v>4026945.347849876</v>
       </c>
       <c r="D7" t="n">
-        <v>2099848.987843618</v>
+        <v>4055615.604901522</v>
       </c>
       <c r="E7" t="n">
-        <v>2105585.762984551</v>
+        <v>4082869.125950724</v>
       </c>
       <c r="F7" t="n">
-        <v>2111025.92828453</v>
+        <v>4108782.307276309</v>
       </c>
       <c r="G7" t="n">
-        <v>2116185.808930013</v>
+        <v>4133427.59890458</v>
       </c>
       <c r="H7" t="n">
-        <v>2121080.899184603</v>
+        <v>4156873.65029785</v>
       </c>
       <c r="I7" t="n">
-        <v>2125725.8853117</v>
+        <v>4179185.459284067</v>
       </c>
       <c r="J7" t="n">
-        <v>2130134.671527144</v>
+        <v>4200424.52292046</v>
       </c>
       <c r="K7" t="n">
-        <v>2134320.40818885</v>
+        <v>4220648.98909384</v>
       </c>
       <c r="L7" t="n">
-        <v>2138295.521553993</v>
+        <v>4239913.807750106</v>
       </c>
       <c r="M7" t="n">
-        <v>2142071.744527038</v>
+        <v>4258270.88074702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1115173.753763905</v>
+        <v>16632703.36549535</v>
       </c>
       <c r="C8" t="n">
-        <v>1118927.404540597</v>
+        <v>16632344.89287154</v>
       </c>
       <c r="D8" t="n">
-        <v>1122465.497398965</v>
+        <v>16631871.11501279</v>
       </c>
       <c r="E8" t="n">
-        <v>1125801.945508815</v>
+        <v>16631293.29385133</v>
       </c>
       <c r="F8" t="n">
-        <v>1128949.722097412</v>
+        <v>16630621.48563701</v>
       </c>
       <c r="G8" t="n">
-        <v>1131920.919783638</v>
+        <v>16629864.71262348</v>
       </c>
       <c r="H8" t="n">
-        <v>1134726.807531785</v>
+        <v>16629031.10521564</v>
       </c>
       <c r="I8" t="n">
-        <v>1137377.885002497</v>
+        <v>16628128.01992503</v>
       </c>
       <c r="J8" t="n">
-        <v>1139883.934172777</v>
+        <v>16627162.13755096</v>
       </c>
       <c r="K8" t="n">
-        <v>1142254.068161762</v>
+        <v>16626139.54520352</v>
       </c>
       <c r="L8" t="n">
-        <v>1144496.77725691</v>
+        <v>16625065.80512249</v>
       </c>
       <c r="M8" t="n">
-        <v>1146619.972174197</v>
+        <v>16623946.01271287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>670544.9358083308</v>
+        <v>20082406.56970096</v>
       </c>
       <c r="C9" t="n">
-        <v>680207.4236562103</v>
+        <v>20158384.00483081</v>
       </c>
       <c r="D9" t="n">
-        <v>689427.3692105412</v>
+        <v>20230154.30651706</v>
       </c>
       <c r="E9" t="n">
-        <v>698224.6704484075</v>
+        <v>20297983.94224274</v>
       </c>
       <c r="F9" t="n">
-        <v>706618.6983961761</v>
+        <v>20362121.37575525</v>
       </c>
       <c r="G9" t="n">
-        <v>714628.2430732995</v>
+        <v>20422798.2681475</v>
       </c>
       <c r="H9" t="n">
-        <v>722271.4732349515</v>
+        <v>20480230.61040759</v>
       </c>
       <c r="I9" t="n">
-        <v>729565.9079804569</v>
+        <v>20534619.78900537</v>
       </c>
       <c r="J9" t="n">
-        <v>736528.3984851986</v>
+        <v>20586153.58651838</v>
       </c>
       <c r="K9" t="n">
-        <v>743175.1183052063</v>
+        <v>20635007.11964267</v>
       </c>
       <c r="L9" t="n">
-        <v>749521.5608666837</v>
+        <v>20681343.71712458</v>
       </c>
       <c r="M9" t="n">
-        <v>755582.542929098</v>
+        <v>20725315.74036458</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3770900.588149384</v>
+        <v>4261548.961477101</v>
       </c>
       <c r="C10" t="n">
-        <v>3782744.527785227</v>
+        <v>4315982.314662993</v>
       </c>
       <c r="D10" t="n">
-        <v>3793953.621228501</v>
+        <v>4367842.543831646</v>
       </c>
       <c r="E10" t="n">
-        <v>3804563.865024291</v>
+        <v>4417254.173198164</v>
       </c>
       <c r="F10" t="n">
-        <v>3814609.391466051</v>
+        <v>4464337.208456576</v>
       </c>
       <c r="G10" t="n">
-        <v>3824122.514396191</v>
+        <v>4509207.003994882</v>
       </c>
       <c r="H10" t="n">
-        <v>3833133.78441231</v>
+        <v>4551974.191951632</v>
       </c>
       <c r="I10" t="n">
-        <v>3841672.050993927</v>
+        <v>4592744.663029432</v>
       </c>
       <c r="J10" t="n">
-        <v>3849764.529475734</v>
+        <v>4631619.59019798</v>
       </c>
       <c r="K10" t="n">
-        <v>3857436.87116199</v>
+        <v>4668695.487536669</v>
       </c>
       <c r="L10" t="n">
-        <v>3864713.235179223</v>
+        <v>4704064.297471166</v>
       </c>
       <c r="M10" t="n">
-        <v>3871616.360937491</v>
+        <v>4737813.500555396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3231129.375697123</v>
+        <v>6502644.953322828</v>
       </c>
       <c r="C11" t="n">
-        <v>3251517.288651515</v>
+        <v>6578189.490016699</v>
       </c>
       <c r="D11" t="n">
-        <v>3270694.186837452</v>
+        <v>6649976.045481145</v>
       </c>
       <c r="E11" t="n">
-        <v>3288744.797612252</v>
+        <v>6718203.133483231</v>
       </c>
       <c r="F11" t="n">
-        <v>3305747.415907193</v>
+        <v>6783060.327916265</v>
       </c>
       <c r="G11" t="n">
-        <v>3321774.385294301</v>
+        <v>6844728.291578054</v>
       </c>
       <c r="H11" t="n">
-        <v>3336892.550789135</v>
+        <v>6903378.884351492</v>
       </c>
       <c r="I11" t="n">
-        <v>3351163.682959527</v>
+        <v>6959175.33456707</v>
       </c>
       <c r="J11" t="n">
-        <v>3364644.873550618</v>
+        <v>7012272.459665775</v>
       </c>
       <c r="K11" t="n">
-        <v>3377388.903301723</v>
+        <v>7062816.924386978</v>
       </c>
       <c r="L11" t="n">
-        <v>3389444.582940245</v>
+        <v>7110947.526562274</v>
       </c>
       <c r="M11" t="n">
-        <v>3400857.068574823</v>
+        <v>7156795.502196312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1273675.294360898</v>
+        <v>34161478.96085125</v>
       </c>
       <c r="C12" t="n">
-        <v>1256532.344173163</v>
+        <v>34197245.12068653</v>
       </c>
       <c r="D12" t="n">
-        <v>1240231.98166243</v>
+        <v>34231018.95561409</v>
       </c>
       <c r="E12" t="n">
-        <v>1224729.724049039</v>
+        <v>34262908.83599025</v>
       </c>
       <c r="F12" t="n">
-        <v>1209983.052875578</v>
+        <v>34293017.92179358</v>
       </c>
       <c r="G12" t="n">
-        <v>1195951.425554261</v>
+        <v>34321444.31349739</v>
       </c>
       <c r="H12" t="n">
-        <v>1182596.264017224</v>
+        <v>34348281.20639992</v>
       </c>
       <c r="I12" t="n">
-        <v>1169880.925288275</v>
+        <v>34373617.04938537</v>
       </c>
       <c r="J12" t="n">
-        <v>1157770.658019051</v>
+        <v>34397535.7082507</v>
       </c>
       <c r="K12" t="n">
-        <v>1146232.54837063</v>
+        <v>34420116.63308918</v>
       </c>
       <c r="L12" t="n">
-        <v>1135235.45804134</v>
+        <v>34441435.02889526</v>
       </c>
       <c r="M12" t="n">
-        <v>1124749.956759214</v>
+        <v>34461562.02829131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>466120.0247780308</v>
+        <v>35899147.04790437</v>
       </c>
       <c r="C13" t="n">
-        <v>471962.9239480086</v>
+        <v>35891177.23131129</v>
       </c>
       <c r="D13" t="n">
-        <v>477523.1679645069</v>
+        <v>35883283.82823555</v>
       </c>
       <c r="E13" t="n">
-        <v>482814.9444015399</v>
+        <v>35875471.43063436</v>
       </c>
       <c r="F13" t="n">
-        <v>487851.8827794679</v>
+        <v>35867743.41039044</v>
       </c>
       <c r="G13" t="n">
-        <v>492647.0438349135</v>
+        <v>35860102.20157842</v>
       </c>
       <c r="H13" t="n">
-        <v>497212.9158465937</v>
+        <v>35852549.51840517</v>
       </c>
       <c r="I13" t="n">
-        <v>501561.4167649783</v>
+        <v>35845086.52283673</v>
       </c>
       <c r="J13" t="n">
-        <v>505703.9010634907</v>
+        <v>35837713.9529942</v>
       </c>
       <c r="K13" t="n">
-        <v>509651.1703717411</v>
+        <v>35830432.22112501</v>
       </c>
       <c r="L13" t="n">
-        <v>513413.4870837778</v>
+        <v>35823241.48803493</v>
       </c>
       <c r="M13" t="n">
-        <v>517000.590255037</v>
+        <v>35816141.71941291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953946.2734981403</v>
+        <v>220777.2852098681</v>
       </c>
       <c r="C14" t="n">
-        <v>945931.9719715938</v>
+        <v>224009.063115526</v>
       </c>
       <c r="D14" t="n">
-        <v>938239.4882229939</v>
+        <v>227094.2370467484</v>
       </c>
       <c r="E14" t="n">
-        <v>930860.9715591595</v>
+        <v>230039.2854336724</v>
       </c>
       <c r="F14" t="n">
-        <v>923787.5856950581</v>
+        <v>232850.5263320394</v>
       </c>
       <c r="G14" t="n">
-        <v>917009.779536888</v>
+        <v>235534.0984215178</v>
       </c>
       <c r="H14" t="n">
-        <v>910517.5112050474</v>
+        <v>238095.9465899989</v>
       </c>
       <c r="I14" t="n">
-        <v>904300.4322956428</v>
+        <v>240541.8114782684</v>
       </c>
       <c r="J14" t="n">
-        <v>898348.0384366512</v>
+        <v>242877.2224175073</v>
       </c>
       <c r="K14" t="n">
-        <v>892649.7913530618</v>
+        <v>245107.4932543635</v>
       </c>
       <c r="L14" t="n">
-        <v>887195.2169214115</v>
+        <v>247237.7206106856</v>
       </c>
       <c r="M14" t="n">
-        <v>881973.9830508381</v>
+        <v>249272.7841769196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>294246.2052299399</v>
+        <v>2782708.012953822</v>
       </c>
       <c r="C15" t="n">
-        <v>297904.5837036669</v>
+        <v>2799501.972294338</v>
       </c>
       <c r="D15" t="n">
-        <v>301384.9265540801</v>
+        <v>2815376.837250631</v>
       </c>
       <c r="E15" t="n">
-        <v>304696.2509285621</v>
+        <v>2830390.452012442</v>
       </c>
       <c r="F15" t="n">
-        <v>307847.2125386074</v>
+        <v>2844596.785148527</v>
       </c>
       <c r="G15" t="n">
-        <v>310846.099596044</v>
+        <v>2858046.184290104</v>
       </c>
       <c r="H15" t="n">
-        <v>313700.8312054127</v>
+        <v>2870785.616643563</v>
       </c>
       <c r="I15" t="n">
-        <v>316418.9594102763</v>
+        <v>2882858.895666048</v>
       </c>
       <c r="J15" t="n">
-        <v>319007.6742007229</v>
+        <v>2894306.894291762</v>
       </c>
       <c r="K15" t="n">
-        <v>321473.8108788989</v>
+        <v>2905167.745171256</v>
       </c>
       <c r="L15" t="n">
-        <v>323823.8592705522</v>
+        <v>2915477.028418545</v>
       </c>
       <c r="M15" t="n">
-        <v>326063.9743425865</v>
+        <v>2925267.947401319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>300855.1154107377</v>
+        <v>7577653.672980383</v>
       </c>
       <c r="C16" t="n">
-        <v>304836.4472935796</v>
+        <v>7626157.947594047</v>
       </c>
       <c r="D16" t="n">
-        <v>308628.8726986684</v>
+        <v>7672090.577649206</v>
       </c>
       <c r="E16" t="n">
-        <v>312241.5132934451</v>
+        <v>7715603.607673466</v>
       </c>
       <c r="F16" t="n">
-        <v>315683.1738459878</v>
+        <v>7756840.117185861</v>
       </c>
       <c r="G16" t="n">
-        <v>318962.3286660127</v>
+        <v>7795934.641262665</v>
       </c>
       <c r="H16" t="n">
-        <v>322087.1132962406</v>
+        <v>7833013.594082743</v>
       </c>
       <c r="I16" t="n">
-        <v>325065.3206099123</v>
+        <v>7868195.690333501</v>
       </c>
       <c r="J16" t="n">
-        <v>327904.4005679451</v>
+        <v>7901592.360382289</v>
       </c>
       <c r="K16" t="n">
-        <v>330611.4629842155</v>
+        <v>7933308.156006575</v>
       </c>
       <c r="L16" t="n">
-        <v>333193.282730937</v>
+        <v>7963441.144224659</v>
       </c>
       <c r="M16" t="n">
-        <v>335656.306890808</v>
+        <v>7992083.287394464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1684761.373445541</v>
+        <v>3639880.357513838</v>
       </c>
       <c r="C17" t="n">
-        <v>1707133.004241258</v>
+        <v>3664970.415387943</v>
       </c>
       <c r="D17" t="n">
-        <v>1728446.82094878</v>
+        <v>3688667.355697811</v>
       </c>
       <c r="E17" t="n">
-        <v>1748753.633480698</v>
+        <v>3711060.651457027</v>
       </c>
       <c r="F17" t="n">
-        <v>1768102.507365912</v>
+        <v>3732233.642619826</v>
       </c>
       <c r="G17" t="n">
-        <v>1786540.68634057</v>
+        <v>3752263.943418331</v>
       </c>
       <c r="H17" t="n">
-        <v>1804113.544139981</v>
+        <v>3771223.829105467</v>
       </c>
       <c r="I17" t="n">
-        <v>1820864.560837388</v>
+        <v>3789180.601638258</v>
       </c>
       <c r="J17" t="n">
-        <v>1836835.319604665</v>
+        <v>3806196.934251659</v>
       </c>
       <c r="K17" t="n">
-        <v>1852065.520299911</v>
+        <v>3822331.195189856</v>
       </c>
       <c r="L17" t="n">
-        <v>1866593.006736368</v>
+        <v>3837637.75109949</v>
       </c>
       <c r="M17" t="n">
-        <v>1880453.804903269</v>
+        <v>3852167.250757098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1236742.296321696</v>
+        <v>3229410.500204269</v>
       </c>
       <c r="C18" t="n">
-        <v>1237863.826408372</v>
+        <v>3232102.886622887</v>
       </c>
       <c r="D18" t="n">
-        <v>1238899.923512711</v>
+        <v>3234584.323986109</v>
       </c>
       <c r="E18" t="n">
-        <v>1239858.204760351</v>
+        <v>3236874.620560516</v>
       </c>
       <c r="F18" t="n">
-        <v>1240745.509424783</v>
+        <v>3238991.448067334</v>
       </c>
       <c r="G18" t="n">
-        <v>1241567.986852027</v>
+        <v>3240950.59484008</v>
       </c>
       <c r="H18" t="n">
-        <v>1242331.173729103</v>
+        <v>3242766.187260322</v>
       </c>
       <c r="I18" t="n">
-        <v>1243040.062035683</v>
+        <v>3244450.883525401</v>
       </c>
       <c r="J18" t="n">
-        <v>1243699.158851712</v>
+        <v>3246016.043297334</v>
       </c>
       <c r="K18" t="n">
-        <v>1244312.539047775</v>
+        <v>3247471.876331821</v>
       </c>
       <c r="L18" t="n">
-        <v>1244883.891750534</v>
+        <v>3248827.572792694</v>
       </c>
       <c r="M18" t="n">
-        <v>1245416.561361101</v>
+        <v>3250091.417604454</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100740.0249633593</v>
+        <v>4931300.446383089</v>
       </c>
       <c r="C19" t="n">
-        <v>98983.76364407456</v>
+        <v>4928398.294291016</v>
       </c>
       <c r="D19" t="n">
-        <v>97315.41206189711</v>
+        <v>4925551.181529678</v>
       </c>
       <c r="E19" t="n">
-        <v>95730.04686281923</v>
+        <v>4922761.601811416</v>
       </c>
       <c r="F19" t="n">
-        <v>94223.00529362308</v>
+        <v>4920031.332626782</v>
       </c>
       <c r="G19" t="n">
-        <v>92789.87776830327</v>
+        <v>4917361.547468796</v>
       </c>
       <c r="H19" t="n">
-        <v>91426.499265227</v>
+        <v>4914752.912528358</v>
       </c>
       <c r="I19" t="n">
-        <v>90128.93989793677</v>
+        <v>4912205.669885445</v>
       </c>
       <c r="J19" t="n">
-        <v>88893.49494178314</v>
+        <v>4909719.708974376</v>
       </c>
       <c r="K19" t="n">
-        <v>87716.6745444308</v>
+        <v>4907294.6278743</v>
       </c>
       <c r="L19" t="n">
-        <v>86595.19330449495</v>
+        <v>4904929.785788041</v>
       </c>
       <c r="M19" t="n">
-        <v>85525.95986454887</v>
+        <v>4902624.347895794</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2025664.503835973</v>
+        <v>3318934.543646008</v>
       </c>
       <c r="C20" t="n">
-        <v>2021962.255571354</v>
+        <v>3318369.055127464</v>
       </c>
       <c r="D20" t="n">
-        <v>2018450.171004286</v>
+        <v>3317698.968949609</v>
       </c>
       <c r="E20" t="n">
-        <v>2015116.150526848</v>
+        <v>3316942.941302478</v>
       </c>
       <c r="F20" t="n">
-        <v>2011948.907099517</v>
+        <v>3316117.03063041</v>
       </c>
       <c r="G20" t="n">
-        <v>2008937.920935228</v>
+        <v>3315235.039230958</v>
       </c>
       <c r="H20" t="n">
-        <v>2006073.393887848</v>
+        <v>3314308.811492868</v>
       </c>
       <c r="I20" t="n">
-        <v>2003346.204360042</v>
+        <v>3313348.493960671</v>
       </c>
       <c r="J20" t="n">
-        <v>2000747.863332274</v>
+        <v>3312362.7618839</v>
       </c>
       <c r="K20" t="n">
-        <v>1998270.471944136</v>
+        <v>3311359.016388781</v>
       </c>
       <c r="L20" t="n">
-        <v>1995906.680917897</v>
+        <v>3310343.555952564</v>
       </c>
       <c r="M20" t="n">
-        <v>1993649.652013934</v>
+        <v>3309321.725426607</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>960985.0095105767</v>
+        <v>2891036.842824131</v>
       </c>
       <c r="C21" t="n">
-        <v>962027.7615142167</v>
+        <v>2893016.400398113</v>
       </c>
       <c r="D21" t="n">
-        <v>963035.6196387522</v>
+        <v>2894910.257767439</v>
       </c>
       <c r="E21" t="n">
-        <v>964007.8748151921</v>
+        <v>2896720.040860355</v>
       </c>
       <c r="F21" t="n">
-        <v>964944.1801568791</v>
+        <v>2898447.638052955</v>
       </c>
       <c r="G21" t="n">
-        <v>965844.4928838499</v>
+        <v>2900095.151816621</v>
       </c>
       <c r="H21" t="n">
-        <v>966709.0233429037</v>
+        <v>2901664.854710393</v>
       </c>
       <c r="I21" t="n">
-        <v>967538.1904722154</v>
+        <v>2903159.149804831</v>
       </c>
       <c r="J21" t="n">
-        <v>968332.5830782205</v>
+        <v>2904580.535487726</v>
       </c>
       <c r="K21" t="n">
-        <v>969092.9263210893</v>
+        <v>2905931.574491292</v>
       </c>
       <c r="L21" t="n">
-        <v>969820.052844435</v>
+        <v>2907214.866910487</v>
       </c>
       <c r="M21" t="n">
-        <v>970514.8780216873</v>
+        <v>2908433.026936211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924039.1853242517</v>
+        <v>9463159.178346932</v>
       </c>
       <c r="C22" t="n">
-        <v>924890.7089085355</v>
+        <v>9488010.057387188</v>
       </c>
       <c r="D22" t="n">
-        <v>925596.4809413478</v>
+        <v>9511452.374349594</v>
       </c>
       <c r="E22" t="n">
-        <v>926175.4790994562</v>
+        <v>9533575.560273886</v>
       </c>
       <c r="F22" t="n">
-        <v>926644.3550685197</v>
+        <v>9554463.026909396</v>
       </c>
       <c r="G22" t="n">
-        <v>927017.707613986</v>
+        <v>9574192.569406331</v>
       </c>
       <c r="H22" t="n">
-        <v>927308.3261196688</v>
+        <v>9592836.744743481</v>
       </c>
       <c r="I22" t="n">
-        <v>927527.4071602747</v>
+        <v>9610463.226889223</v>
       </c>
       <c r="J22" t="n">
-        <v>927684.746609848</v>
+        <v>9627135.13973245</v>
       </c>
       <c r="K22" t="n">
-        <v>927788.9096854217</v>
+        <v>9642911.368817836</v>
       </c>
       <c r="L22" t="n">
-        <v>927847.3811792806</v>
+        <v>9657846.852930367</v>
       </c>
       <c r="M22" t="n">
-        <v>927866.6979765818</v>
+        <v>9671992.856578276</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63575.85791388806</v>
+        <v>7105927.321024984</v>
       </c>
       <c r="C23" t="n">
-        <v>63480.31562642939</v>
+        <v>7100463.357689425</v>
       </c>
       <c r="D23" t="n">
-        <v>63381.14756075479</v>
+        <v>7095304.973444715</v>
       </c>
       <c r="E23" t="n">
-        <v>63279.46862116223</v>
+        <v>7090429.386185683</v>
       </c>
       <c r="F23" t="n">
-        <v>63176.22170331841</v>
+        <v>7085815.705320455</v>
       </c>
       <c r="G23" t="n">
-        <v>63072.20043249568</v>
+        <v>7081444.778842792</v>
       </c>
       <c r="H23" t="n">
-        <v>62968.06920565246</v>
+        <v>7077299.049792685</v>
       </c>
       <c r="I23" t="n">
-        <v>62864.38080364745</v>
+        <v>7073362.422316216</v>
       </c>
       <c r="J23" t="n">
-        <v>62761.59182536462</v>
+        <v>7069620.137269795</v>
       </c>
       <c r="K23" t="n">
-        <v>62660.07617950859</v>
+        <v>7066058.657170162</v>
       </c>
       <c r="L23" t="n">
-        <v>62560.13685214333</v>
+        <v>7062665.560142323</v>
       </c>
       <c r="M23" t="n">
-        <v>62462.01614883728</v>
+        <v>7059429.442454152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8146809.59843336</v>
+        <v>7644959.851855233</v>
       </c>
       <c r="C24" t="n">
-        <v>8152623.380640417</v>
+        <v>7670668.468613163</v>
       </c>
       <c r="D24" t="n">
-        <v>8158154.291343957</v>
+        <v>7694946.489887446</v>
       </c>
       <c r="E24" t="n">
-        <v>8163410.123471215</v>
+        <v>7717883.014446765</v>
       </c>
       <c r="F24" t="n">
-        <v>8168399.369755849</v>
+        <v>7739561.317272171</v>
       </c>
       <c r="G24" t="n">
-        <v>8173131.031935722</v>
+        <v>7760059.219204858</v>
       </c>
       <c r="H24" t="n">
-        <v>8177614.458926216</v>
+        <v>7779449.436753303</v>
       </c>
       <c r="I24" t="n">
-        <v>8181859.210519984</v>
+        <v>7797799.912570506</v>
       </c>
       <c r="J24" t="n">
-        <v>8185874.94344458</v>
+        <v>7815174.127162308</v>
       </c>
       <c r="K24" t="n">
-        <v>8189671.316917032</v>
+        <v>7831631.392454132</v>
       </c>
       <c r="L24" t="n">
-        <v>8193257.915123299</v>
+        <v>7847227.127888441</v>
       </c>
       <c r="M24" t="n">
-        <v>8196644.184311762</v>
+        <v>7862013.11976321</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2928459.004654096</v>
+        <v>4959545.08318542</v>
       </c>
       <c r="C25" t="n">
-        <v>2925999.511031903</v>
+        <v>4956309.24302109</v>
       </c>
       <c r="D25" t="n">
-        <v>2923595.683007715</v>
+        <v>4953178.556793209</v>
       </c>
       <c r="E25" t="n">
-        <v>2921251.253108852</v>
+        <v>4950152.101583276</v>
       </c>
       <c r="F25" t="n">
-        <v>2918968.826403273</v>
+        <v>4947228.304326113</v>
       </c>
       <c r="G25" t="n">
-        <v>2916750.07770152</v>
+        <v>4944405.09281987</v>
       </c>
       <c r="H25" t="n">
-        <v>2914595.918177628</v>
+        <v>4941680.019466468</v>
       </c>
       <c r="I25" t="n">
-        <v>2912506.635883564</v>
+        <v>4939050.362317664</v>
       </c>
       <c r="J25" t="n">
-        <v>2910482.014023541</v>
+        <v>4936513.207262491</v>
       </c>
       <c r="K25" t="n">
-        <v>2908521.430300118</v>
+        <v>4934065.514565713</v>
       </c>
       <c r="L25" t="n">
-        <v>2906623.940184265</v>
+        <v>4931704.172446268</v>
       </c>
       <c r="M25" t="n">
-        <v>2904788.346541524</v>
+        <v>4929426.039932049</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7872731.094060123</v>
+        <v>9491947.046393305</v>
       </c>
       <c r="C26" t="n">
-        <v>7904784.343608022</v>
+        <v>9508920.737233311</v>
       </c>
       <c r="D26" t="n">
-        <v>7935106.499926269</v>
+        <v>9524911.959290445</v>
       </c>
       <c r="E26" t="n">
-        <v>7963805.200883657</v>
+        <v>9539984.429890931</v>
       </c>
       <c r="F26" t="n">
-        <v>7990980.825359613</v>
+        <v>9554197.219047949</v>
       </c>
       <c r="G26" t="n">
-        <v>8016727.003225595</v>
+        <v>9567605.145772085</v>
       </c>
       <c r="H26" t="n">
-        <v>8041131.08854273</v>
+        <v>9580259.131706387</v>
       </c>
       <c r="I26" t="n">
-        <v>8064274.598825723</v>
+        <v>9592206.518033192</v>
       </c>
       <c r="J26" t="n">
-        <v>8086233.622948766</v>
+        <v>9603491.350625783</v>
       </c>
       <c r="K26" t="n">
-        <v>8107079.200035959</v>
+        <v>9614154.637607396</v>
       </c>
       <c r="L26" t="n">
-        <v>8126877.671463877</v>
+        <v>9624234.582792744</v>
       </c>
       <c r="M26" t="n">
-        <v>8145691.007930428</v>
+        <v>9633766.797962725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11562752.78739096</v>
+        <v>3828617.057861283</v>
       </c>
       <c r="C27" t="n">
-        <v>11608144.45642823</v>
+        <v>3843582.018839523</v>
       </c>
       <c r="D27" t="n">
-        <v>11650908.1023901</v>
+        <v>3857779.481407672</v>
       </c>
       <c r="E27" t="n">
-        <v>11691220.29287943</v>
+        <v>3871249.935298949</v>
       </c>
       <c r="F27" t="n">
-        <v>11729244.73441998</v>
+        <v>3884032.149459526</v>
       </c>
       <c r="G27" t="n">
-        <v>11765133.21718016</v>
+        <v>3896163.15218167</v>
       </c>
       <c r="H27" t="n">
-        <v>11799026.49780581</v>
+        <v>3907678.232191399</v>
       </c>
       <c r="I27" t="n">
-        <v>11831055.12258995</v>
+        <v>3918610.956589177</v>
       </c>
       <c r="J27" t="n">
-        <v>11861340.19349901</v>
+        <v>3928993.202151313</v>
       </c>
       <c r="K27" t="n">
-        <v>11889994.07981177</v>
+        <v>3938855.197032034</v>
       </c>
       <c r="L27" t="n">
-        <v>11917121.07825308</v>
+        <v>3948225.570374109</v>
       </c>
       <c r="M27" t="n">
-        <v>11942818.02456897</v>
+        <v>3957131.407740965</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3049944.972769976</v>
+        <v>10415064.07231177</v>
       </c>
       <c r="C28" t="n">
-        <v>3087764.945614636</v>
+        <v>10435740.31650378</v>
       </c>
       <c r="D28" t="n">
-        <v>3123777.354631156</v>
+        <v>10455056.53718735</v>
       </c>
       <c r="E28" t="n">
-        <v>3158071.643268734</v>
+        <v>10473117.45403535</v>
       </c>
       <c r="F28" t="n">
-        <v>3190733.775037706</v>
+        <v>10490018.82506673</v>
       </c>
       <c r="G28" t="n">
-        <v>3221846.175027639</v>
+        <v>10505848.25305196</v>
       </c>
       <c r="H28" t="n">
-        <v>3251487.711951524</v>
+        <v>10520685.92086926</v>
       </c>
       <c r="I28" t="n">
-        <v>3279733.713690281</v>
+        <v>10534605.26109084</v>
       </c>
       <c r="J28" t="n">
-        <v>3306656.010217249</v>
+        <v>10547673.56495242</v>
       </c>
       <c r="K28" t="n">
-        <v>3332322.998592108</v>
+        <v>10559952.5356573</v>
       </c>
       <c r="L28" t="n">
-        <v>3356799.725444108</v>
+        <v>10571498.7907096</v>
       </c>
       <c r="M28" t="n">
-        <v>3380147.983019948</v>
+        <v>10582364.31772141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5790071.804543823</v>
+        <v>1271964.460885815</v>
       </c>
       <c r="C29" t="n">
-        <v>5859230.156529635</v>
+        <v>1284393.231939636</v>
       </c>
       <c r="D29" t="n">
-        <v>5924974.56804496</v>
+        <v>1296174.704625256</v>
       </c>
       <c r="E29" t="n">
-        <v>5987482.683323205</v>
+        <v>1307346.120411068</v>
       </c>
       <c r="F29" t="n">
-        <v>6046924.473335266</v>
+        <v>1317942.66227942</v>
       </c>
       <c r="G29" t="n">
-        <v>6103462.20511511</v>
+        <v>1327997.52783972</v>
       </c>
       <c r="H29" t="n">
-        <v>6157250.489153624</v>
+        <v>1337542.00851731</v>
       </c>
       <c r="I29" t="n">
-        <v>6208436.389721423</v>
+        <v>1346605.572655253</v>
       </c>
       <c r="J29" t="n">
-        <v>6257159.585054815</v>
+        <v>1355215.950770617</v>
       </c>
       <c r="K29" t="n">
-        <v>6303552.566302747</v>
+        <v>1363399.221547551</v>
       </c>
       <c r="L29" t="n">
-        <v>6347740.865768909</v>
+        <v>1371179.897439316</v>
       </c>
       <c r="M29" t="n">
-        <v>6389843.306491226</v>
+        <v>1378581.008993603</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33728760.30561239</v>
+        <v>537805.5472759549</v>
       </c>
       <c r="C30" t="n">
-        <v>33761293.72763503</v>
+        <v>542241.1747083971</v>
       </c>
       <c r="D30" t="n">
-        <v>33791964.62064284</v>
+        <v>546434.6519723702</v>
       </c>
       <c r="E30" t="n">
-        <v>33820877.42557251</v>
+        <v>550400.9819949102</v>
       </c>
       <c r="F30" t="n">
-        <v>33848131.09934419</v>
+        <v>554154.2193061747</v>
       </c>
       <c r="G30" t="n">
-        <v>33873819.36055064</v>
+        <v>557707.5204529744</v>
       </c>
       <c r="H30" t="n">
-        <v>33898030.92141283</v>
+        <v>561073.1941009304</v>
       </c>
       <c r="I30" t="n">
-        <v>33920849.70953411</v>
+        <v>564262.7502511847</v>
       </c>
       <c r="J30" t="n">
-        <v>33942355.08175462</v>
+        <v>567286.9481388917</v>
       </c>
       <c r="K30" t="n">
-        <v>33962622.03158075</v>
+        <v>570155.8424967052</v>
       </c>
       <c r="L30" t="n">
-        <v>33981721.39101708</v>
+        <v>572878.8279572609</v>
       </c>
       <c r="M30" t="n">
-        <v>33999720.02720308</v>
+        <v>575464.6814467604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35793598.83713898</v>
+        <v>640244.9323447063</v>
       </c>
       <c r="C31" t="n">
-        <v>35786810.9472267</v>
+        <v>641073.200256261</v>
       </c>
       <c r="D31" t="n">
-        <v>35780054.16090602</v>
+        <v>641843.553266203</v>
       </c>
       <c r="E31" t="n">
-        <v>35773340.41376534</v>
+        <v>642560.6057629962</v>
       </c>
       <c r="F31" t="n">
-        <v>35766679.21076432</v>
+        <v>643228.5598511267</v>
       </c>
       <c r="G31" t="n">
-        <v>35760078.08761984</v>
+        <v>643851.245358102</v>
       </c>
       <c r="H31" t="n">
-        <v>35753542.98368883</v>
+        <v>644432.1557727708</v>
       </c>
       <c r="I31" t="n">
-        <v>35747078.54319447</v>
+        <v>644974.4805266378</v>
       </c>
       <c r="J31" t="n">
-        <v>35740688.35856876</v>
+        <v>645481.1339937812</v>
       </c>
       <c r="K31" t="n">
-        <v>35734375.16702729</v>
+        <v>645954.7815489424</v>
       </c>
       <c r="L31" t="n">
-        <v>35728141.00942683</v>
+        <v>646397.8629901628</v>
       </c>
       <c r="M31" t="n">
-        <v>35721987.3587231</v>
+        <v>646812.6136018317</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>112332.3433644082</v>
+        <v>1491656.457966505</v>
       </c>
       <c r="C32" t="n">
-        <v>113961.7020416129</v>
+        <v>1498961.613540759</v>
       </c>
       <c r="D32" t="n">
-        <v>115516.7476594672</v>
+        <v>1505850.683496222</v>
       </c>
       <c r="E32" t="n">
-        <v>117000.7971446496</v>
+        <v>1512351.529876111</v>
       </c>
       <c r="F32" t="n">
-        <v>118417.081926316</v>
+        <v>1518489.953956051</v>
       </c>
       <c r="G32" t="n">
-        <v>119768.7386387363</v>
+        <v>1524289.856288068</v>
       </c>
       <c r="H32" t="n">
-        <v>121058.8021418303</v>
+        <v>1529773.38438829</v>
       </c>
       <c r="I32" t="n">
-        <v>122290.2005390525</v>
+        <v>1534961.068931807</v>
       </c>
       <c r="J32" t="n">
-        <v>123465.7519019563</v>
+        <v>1539871.949281545</v>
       </c>
       <c r="K32" t="n">
-        <v>124588.1624422707</v>
+        <v>1544523.689132208</v>
       </c>
       <c r="L32" t="n">
-        <v>125660.0259018596</v>
+        <v>1548932.683008501</v>
       </c>
       <c r="M32" t="n">
-        <v>126683.8239551838</v>
+        <v>1553114.154310917</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2750819.897155941</v>
+        <v>1923826.527674504</v>
       </c>
       <c r="C33" t="n">
-        <v>2768793.67704989</v>
+        <v>1934313.239061682</v>
       </c>
       <c r="D33" t="n">
-        <v>2785798.494157344</v>
+        <v>1944187.893567704</v>
       </c>
       <c r="E33" t="n">
-        <v>2801894.07091023</v>
+        <v>1953492.861491483</v>
       </c>
       <c r="F33" t="n">
-        <v>2817136.247543521</v>
+        <v>1962267.254147055</v>
       </c>
       <c r="G33" t="n">
-        <v>2831577.224806152</v>
+        <v>1970547.186484585</v>
       </c>
       <c r="H33" t="n">
-        <v>2845265.794663072</v>
+        <v>1978366.019290164</v>
       </c>
       <c r="I33" t="n">
-        <v>2858247.559027344</v>
+        <v>1985754.582189556</v>
       </c>
       <c r="J33" t="n">
-        <v>2870565.136657029</v>
+        <v>1992741.378705105</v>
       </c>
       <c r="K33" t="n">
-        <v>2882258.358455449</v>
+        <v>1999352.774611937</v>
       </c>
       <c r="L33" t="n">
-        <v>2893364.4514696</v>
+        <v>2005613.170808269</v>
       </c>
       <c r="M33" t="n">
-        <v>2903918.211956188</v>
+        <v>2011545.161872236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7197530.91724436</v>
+        <v>2346737.346361818</v>
       </c>
       <c r="C34" t="n">
-        <v>7243921.229787633</v>
+        <v>2349152.62082572</v>
       </c>
       <c r="D34" t="n">
-        <v>7287857.00949806</v>
+        <v>2351428.826834236</v>
       </c>
       <c r="E34" t="n">
-        <v>7329482.849155843</v>
+        <v>2353575.061782897</v>
       </c>
       <c r="F34" t="n">
-        <v>7368934.886944383</v>
+        <v>2355599.772723769</v>
       </c>
       <c r="G34" t="n">
-        <v>7406341.191808075</v>
+        <v>2357510.805443328</v>
       </c>
       <c r="H34" t="n">
-        <v>7441822.154004619</v>
+        <v>2359315.449756531</v>
       </c>
       <c r="I34" t="n">
-        <v>7475490.875631273</v>
+        <v>2361020.481297622</v>
       </c>
       <c r="J34" t="n">
-        <v>7507453.556936592</v>
+        <v>2362632.200074736</v>
       </c>
       <c r="K34" t="n">
-        <v>7537809.875105172</v>
+        <v>2364156.466036011</v>
       </c>
       <c r="L34" t="n">
-        <v>7566653.352959633</v>
+        <v>2365598.73187929</v>
       </c>
       <c r="M34" t="n">
-        <v>7594071.715645581</v>
+        <v>2366964.073321825</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3499110.48253198</v>
+        <v>1421999.901118282</v>
       </c>
       <c r="C35" t="n">
-        <v>3524420.654978618</v>
+        <v>1431985.812707067</v>
       </c>
       <c r="D35" t="n">
-        <v>3548332.78433945</v>
+        <v>1441401.704949464</v>
       </c>
       <c r="E35" t="n">
-        <v>3570935.835288703</v>
+        <v>1450285.38795086</v>
       </c>
       <c r="F35" t="n">
-        <v>3592312.782589294</v>
+        <v>1458671.999581256</v>
       </c>
       <c r="G35" t="n">
-        <v>3612540.992745124</v>
+        <v>1466594.184872783</v>
       </c>
       <c r="H35" t="n">
-        <v>3631692.589217082</v>
+        <v>1474082.267359255</v>
       </c>
       <c r="I35" t="n">
-        <v>3649834.800099328</v>
+        <v>1481164.4117322</v>
       </c>
       <c r="J35" t="n">
-        <v>3667030.287648812</v>
+        <v>1487866.777484854</v>
       </c>
       <c r="K35" t="n">
-        <v>3683337.459472574</v>
+        <v>1494213.663437977</v>
       </c>
       <c r="L35" t="n">
-        <v>3698810.761481628</v>
+        <v>1500227.643213775</v>
       </c>
       <c r="M35" t="n">
-        <v>3713500.952945739</v>
+        <v>1505929.69185373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3181337.946204229</v>
+        <v>1292655.077974536</v>
       </c>
       <c r="C36" t="n">
-        <v>3184037.745996917</v>
+        <v>1295617.235578429</v>
       </c>
       <c r="D36" t="n">
-        <v>3186512.840203591</v>
+        <v>1298406.941414591</v>
       </c>
       <c r="E36" t="n">
-        <v>3188785.072812933</v>
+        <v>1301035.485880357</v>
       </c>
       <c r="F36" t="n">
-        <v>3190873.909732288</v>
+        <v>1303513.374498011</v>
       </c>
       <c r="G36" t="n">
-        <v>3192796.716870205</v>
+        <v>1305850.381561032</v>
       </c>
       <c r="H36" t="n">
-        <v>3194569.004506298</v>
+        <v>1308055.600705425</v>
       </c>
       <c r="I36" t="n">
-        <v>3196204.642032833</v>
+        <v>1310137.492453113</v>
       </c>
       <c r="J36" t="n">
-        <v>3197716.046684652</v>
+        <v>1312103.928806648</v>
       </c>
       <c r="K36" t="n">
-        <v>3199114.349447113</v>
+        <v>1313962.234990826</v>
       </c>
       <c r="L36" t="n">
-        <v>3200409.54095614</v>
+        <v>1315719.228455339</v>
       </c>
       <c r="M36" t="n">
-        <v>3201610.599860653</v>
+        <v>1317381.255260894</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4982996.818387682</v>
+        <v>3842963.328932589</v>
       </c>
       <c r="C37" t="n">
-        <v>4980927.891684566</v>
+        <v>3845683.180403823</v>
       </c>
       <c r="D37" t="n">
-        <v>4978854.546423625</v>
+        <v>3848197.549280565</v>
       </c>
       <c r="E37" t="n">
-        <v>4976782.892797081</v>
+        <v>3850523.195265728</v>
       </c>
       <c r="F37" t="n">
-        <v>4974718.136261214</v>
+        <v>3852675.351977359</v>
       </c>
       <c r="G37" t="n">
-        <v>4972664.69401302</v>
+        <v>3854667.880616061</v>
       </c>
       <c r="H37" t="n">
-        <v>4970626.296965294</v>
+        <v>3856513.40664768</v>
       </c>
       <c r="I37" t="n">
-        <v>4968606.078978075</v>
+        <v>3858223.441566721</v>
       </c>
       <c r="J37" t="n">
-        <v>4966606.654894587</v>
+        <v>3859808.491524264</v>
       </c>
       <c r="K37" t="n">
-        <v>4964630.18876146</v>
+        <v>3861278.154371126</v>
       </c>
       <c r="L37" t="n">
-        <v>4962678.45344408</v>
+        <v>3862641.206461722</v>
       </c>
       <c r="M37" t="n">
-        <v>4960752.882707978</v>
+        <v>3863905.680396229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3389069.736771338</v>
+        <v>3254282.380268596</v>
       </c>
       <c r="C38" t="n">
-        <v>3390670.05509498</v>
+        <v>3261236.773130741</v>
       </c>
       <c r="D38" t="n">
-        <v>3392065.330598358</v>
+        <v>3267786.817150827</v>
       </c>
       <c r="E38" t="n">
-        <v>3393279.548341401</v>
+        <v>3273958.961207643</v>
       </c>
       <c r="F38" t="n">
-        <v>3394333.847929433</v>
+        <v>3279777.809783341</v>
       </c>
       <c r="G38" t="n">
-        <v>3395246.864322666</v>
+        <v>3285266.251067076</v>
       </c>
       <c r="H38" t="n">
-        <v>3396035.028532252</v>
+        <v>3290445.577205133</v>
       </c>
       <c r="I38" t="n">
-        <v>3396712.832594741</v>
+        <v>3295335.596956793</v>
       </c>
       <c r="J38" t="n">
-        <v>3397293.062837616</v>
+        <v>3299954.741053771</v>
       </c>
       <c r="K38" t="n">
-        <v>3397787.005061243</v>
+        <v>3304320.160582382</v>
       </c>
       <c r="L38" t="n">
-        <v>3398204.624906473</v>
+        <v>3308447.818724938</v>
       </c>
       <c r="M38" t="n">
-        <v>3398554.72633329</v>
+        <v>3312352.576205026</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2821971.631110378</v>
+        <v>4292327.964110099</v>
       </c>
       <c r="C39" t="n">
-        <v>2822878.27001743</v>
+        <v>4301473.086744949</v>
       </c>
       <c r="D39" t="n">
-        <v>2823749.80600597</v>
+        <v>4310096.849327289</v>
       </c>
       <c r="E39" t="n">
-        <v>2824585.956033945</v>
+        <v>4318234.160375603</v>
       </c>
       <c r="F39" t="n">
-        <v>2825386.678885296</v>
+        <v>4325917.277590439</v>
       </c>
       <c r="G39" t="n">
-        <v>2826152.145283669</v>
+        <v>4333176.034549929</v>
       </c>
       <c r="H39" t="n">
-        <v>2826882.709309258</v>
+        <v>4340038.045063443</v>
       </c>
       <c r="I39" t="n">
-        <v>2827578.88153664</v>
+        <v>4346528.887819365</v>
       </c>
       <c r="J39" t="n">
-        <v>2828241.304158457</v>
+        <v>4352672.27358304</v>
       </c>
       <c r="K39" t="n">
-        <v>2828870.728228405</v>
+        <v>4358490.196890652</v>
       </c>
       <c r="L39" t="n">
-        <v>2829467.993077211</v>
+        <v>4364003.073925801</v>
       </c>
       <c r="M39" t="n">
-        <v>2830034.007869631</v>
+        <v>4369229.868038118</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9300635.117540881</v>
+        <v>4421172.579674419</v>
       </c>
       <c r="C40" t="n">
-        <v>9325584.957495049</v>
+        <v>4431348.459069695</v>
       </c>
       <c r="D40" t="n">
-        <v>9349121.186723098</v>
+        <v>4440934.383054256</v>
       </c>
       <c r="E40" t="n">
-        <v>9371333.54187943</v>
+        <v>4449968.634881537</v>
       </c>
       <c r="F40" t="n">
-        <v>9392305.720763355</v>
+        <v>4458486.872612435</v>
       </c>
       <c r="G40" t="n">
-        <v>9412115.785464302</v>
+        <v>4466522.304806344</v>
       </c>
       <c r="H40" t="n">
-        <v>9430836.541591913</v>
+        <v>4474105.856526416</v>
       </c>
       <c r="I40" t="n">
-        <v>9448535.894449428</v>
+        <v>4481266.325768493</v>
       </c>
       <c r="J40" t="n">
-        <v>9465277.183077693</v>
+        <v>4488030.530513734</v>
       </c>
       <c r="K40" t="n">
-        <v>9481119.493136331</v>
+        <v>4494423.446676157</v>
       </c>
       <c r="L40" t="n">
-        <v>9496117.949628532</v>
+        <v>4500468.337272946</v>
       </c>
       <c r="M40" t="n">
-        <v>9510323.990469471</v>
+        <v>4506186.873172056</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7010902.477884203</v>
+        <v>2569502.255279321</v>
       </c>
       <c r="C41" t="n">
-        <v>7003029.568287447</v>
+        <v>2574635.614346938</v>
       </c>
       <c r="D41" t="n">
-        <v>6995537.601977602</v>
+        <v>2579467.750380451</v>
       </c>
       <c r="E41" t="n">
-        <v>6988402.653057054</v>
+        <v>2584018.150577256</v>
       </c>
       <c r="F41" t="n">
-        <v>6981602.413104087</v>
+        <v>2588304.973786864</v>
       </c>
       <c r="G41" t="n">
-        <v>6975116.098763809</v>
+        <v>2592345.140042948</v>
       </c>
       <c r="H41" t="n">
-        <v>6968924.359236173</v>
+        <v>2596154.414688524</v>
       </c>
       <c r="I41" t="n">
-        <v>6963009.185204729</v>
+        <v>2599747.487325659</v>
       </c>
       <c r="J41" t="n">
-        <v>6957353.820325166</v>
+        <v>2603138.04581837</v>
       </c>
       <c r="K41" t="n">
-        <v>6951942.67606084</v>
+        <v>2606338.84558039</v>
       </c>
       <c r="L41" t="n">
-        <v>6946761.250393987</v>
+        <v>2609361.774376638</v>
       </c>
       <c r="M41" t="n">
-        <v>6941796.050746217</v>
+        <v>2612217.912865911</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7478092.768287614</v>
+        <v>3476928.864258889</v>
       </c>
       <c r="C42" t="n">
-        <v>7503639.582587242</v>
+        <v>3482818.227666067</v>
       </c>
       <c r="D42" t="n">
-        <v>7527760.839009255</v>
+        <v>3488358.160263669</v>
       </c>
       <c r="E42" t="n">
-        <v>7550545.371278718</v>
+        <v>3493571.609383034</v>
       </c>
       <c r="F42" t="n">
-        <v>7572076.204861119</v>
+        <v>3498479.921552293</v>
       </c>
       <c r="G42" t="n">
-        <v>7592430.925672919</v>
+        <v>3503102.954798158</v>
       </c>
       <c r="H42" t="n">
-        <v>7611682.029166505</v>
+        <v>3507459.183565492</v>
       </c>
       <c r="I42" t="n">
-        <v>7629897.250193626</v>
+        <v>3511565.796665382</v>
       </c>
       <c r="J42" t="n">
-        <v>7647139.874153152</v>
+        <v>3515438.788643794</v>
       </c>
       <c r="K42" t="n">
-        <v>7663469.030013576</v>
+        <v>3519093.044945592</v>
       </c>
       <c r="L42" t="n">
-        <v>7678939.965865389</v>
+        <v>3522542.421233207</v>
       </c>
       <c r="M42" t="n">
-        <v>7693604.307698384</v>
+        <v>3525799.81720724</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4963243.541756947</v>
+        <v>2751490.304007098</v>
       </c>
       <c r="C43" t="n">
-        <v>4960278.558489179</v>
+        <v>2752831.717587268</v>
       </c>
       <c r="D43" t="n">
-        <v>4957381.939638132</v>
+        <v>2754089.926904537</v>
       </c>
       <c r="E43" t="n">
-        <v>4954556.61810708</v>
+        <v>2755269.351138296</v>
       </c>
       <c r="F43" t="n">
-        <v>4951804.465261722</v>
+        <v>2756374.236032203</v>
       </c>
       <c r="G43" t="n">
-        <v>4949126.486750888</v>
+        <v>2757408.652360654</v>
       </c>
       <c r="H43" t="n">
-        <v>4946522.986272031</v>
+        <v>2758376.495489942</v>
       </c>
       <c r="I43" t="n">
-        <v>4943993.702314571</v>
+        <v>2759281.486028709</v>
       </c>
       <c r="J43" t="n">
-        <v>4941537.922146128</v>
+        <v>2760127.171507193</v>
       </c>
       <c r="K43" t="n">
-        <v>4939154.576653003</v>
+        <v>2760916.92898728</v>
       </c>
       <c r="L43" t="n">
-        <v>4936842.319084141</v>
+        <v>2761653.968489468</v>
       </c>
       <c r="M43" t="n">
-        <v>4934599.590280062</v>
+        <v>2762341.337111127</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9472098.525500953</v>
+        <v>5009787.520039979</v>
       </c>
       <c r="C44" t="n">
-        <v>9491323.517743856</v>
+        <v>5012221.60758768</v>
       </c>
       <c r="D44" t="n">
-        <v>9509463.040369272</v>
+        <v>5014490.011373647</v>
       </c>
       <c r="E44" t="n">
-        <v>9526586.851797223</v>
+        <v>5016602.91962266</v>
       </c>
       <c r="F44" t="n">
-        <v>9542759.62702322</v>
+        <v>5018569.947366029</v>
       </c>
       <c r="G44" t="n">
-        <v>9558041.391848743</v>
+        <v>5020400.160170395</v>
       </c>
       <c r="H44" t="n">
-        <v>9572487.910885483</v>
+        <v>5022102.097944502</v>
       </c>
       <c r="I44" t="n">
-        <v>9586151.035518199</v>
+        <v>5023683.798739312</v>
       </c>
       <c r="J44" t="n">
-        <v>9599079.017066866</v>
+        <v>5025152.8224287</v>
       </c>
       <c r="K44" t="n">
-        <v>9611316.789586931</v>
+        <v>5026516.274152113</v>
       </c>
       <c r="L44" t="n">
-        <v>9622906.226061016</v>
+        <v>5027780.827399142</v>
       </c>
       <c r="M44" t="n">
-        <v>9633886.371177614</v>
+        <v>5028952.746626817</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3764026.137191892</v>
+        <v>2629588.489522699</v>
       </c>
       <c r="C45" t="n">
-        <v>3778829.589155704</v>
+        <v>2632428.743886895</v>
       </c>
       <c r="D45" t="n">
-        <v>3792892.493436247</v>
+        <v>2635117.818733998</v>
       </c>
       <c r="E45" t="n">
-        <v>3806252.352706909</v>
+        <v>2637663.631577175</v>
       </c>
       <c r="F45" t="n">
-        <v>3818945.251139596</v>
+        <v>2640073.763063289</v>
       </c>
       <c r="G45" t="n">
-        <v>3831005.807015613</v>
+        <v>2642355.457658637</v>
       </c>
       <c r="H45" t="n">
-        <v>3842467.148210049</v>
+        <v>2644515.626565646</v>
       </c>
       <c r="I45" t="n">
-        <v>3853360.90644066</v>
+        <v>2646560.852598507</v>
       </c>
       <c r="J45" t="n">
-        <v>3863717.226742923</v>
+        <v>2648497.396737922</v>
       </c>
       <c r="K45" t="n">
-        <v>3873564.789146304</v>
+        <v>2650331.206083275</v>
       </c>
       <c r="L45" t="n">
-        <v>3882930.839976311</v>
+        <v>2652067.922938839</v>
       </c>
       <c r="M45" t="n">
-        <v>3891841.230599642</v>
+        <v>2653712.894786328</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10363663.61139411</v>
+        <v>2091142.562967256</v>
       </c>
       <c r="C46" t="n">
-        <v>10386416.59615832</v>
+        <v>2090183.403463807</v>
       </c>
       <c r="D46" t="n">
-        <v>10407673.35280256</v>
+        <v>2089250.974850293</v>
       </c>
       <c r="E46" t="n">
-        <v>10427546.87608451</v>
+        <v>2088344.61856302</v>
       </c>
       <c r="F46" t="n">
-        <v>10446140.78096054</v>
+        <v>2087463.631648158</v>
       </c>
       <c r="G46" t="n">
-        <v>10463550.1118992</v>
+        <v>2086607.282187383</v>
       </c>
       <c r="H46" t="n">
-        <v>10479862.08523825</v>
+        <v>2085774.821652255</v>
       </c>
       <c r="I46" t="n">
-        <v>10495156.7689281</v>
+        <v>2084965.494729157</v>
       </c>
       <c r="J46" t="n">
-        <v>10509507.70405268</v>
+        <v>2084178.547067785</v>
       </c>
       <c r="K46" t="n">
-        <v>10522982.47242058</v>
+        <v>2083413.231327818</v>
       </c>
       <c r="L46" t="n">
-        <v>10535643.21438712</v>
+        <v>2082668.811838433</v>
       </c>
       <c r="M46" t="n">
-        <v>10547547.10090791</v>
+        <v>2081944.568127099</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1173974.688050032</v>
+        <v>1165909.737183634</v>
       </c>
       <c r="C47" t="n">
-        <v>1185746.147601634</v>
+        <v>1178102.83729374</v>
       </c>
       <c r="D47" t="n">
-        <v>1196907.118914992</v>
+        <v>1189667.616940368</v>
       </c>
       <c r="E47" t="n">
-        <v>1207492.422263611</v>
+        <v>1200639.399457481</v>
       </c>
       <c r="F47" t="n">
-        <v>1217534.994362067</v>
+        <v>1211051.670093168</v>
       </c>
       <c r="G47" t="n">
-        <v>1227065.948518422</v>
+        <v>1220936.122470483</v>
       </c>
       <c r="H47" t="n">
-        <v>1236114.641721673</v>
+        <v>1230322.714281421</v>
       </c>
       <c r="I47" t="n">
-        <v>1244708.746481143</v>
+        <v>1239239.729726601</v>
       </c>
       <c r="J47" t="n">
-        <v>1252874.325624868</v>
+        <v>1247713.846627794</v>
       </c>
       <c r="K47" t="n">
-        <v>1260635.908600003</v>
+        <v>1255770.206516307</v>
       </c>
       <c r="L47" t="n">
-        <v>1268016.56810727</v>
+        <v>1263432.486303359</v>
       </c>
       <c r="M47" t="n">
-        <v>1275037.996136915</v>
+        <v>1270722.970415045</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>518057.0489963433</v>
+        <v>3824151.824874409</v>
       </c>
       <c r="C48" t="n">
-        <v>522562.854139288</v>
+        <v>3838846.05484274</v>
       </c>
       <c r="D48" t="n">
-        <v>526825.5892968178</v>
+        <v>3852758.415373795</v>
       </c>
       <c r="E48" t="n">
-        <v>530860.0210219622</v>
+        <v>3865934.55804649</v>
       </c>
       <c r="F48" t="n">
-        <v>534680.015982287</v>
+        <v>3878417.507479176</v>
       </c>
       <c r="G48" t="n">
-        <v>538298.5842662537</v>
+        <v>3890247.779642493</v>
       </c>
       <c r="H48" t="n">
-        <v>541727.9232836645</v>
+        <v>3901463.501119584</v>
       </c>
       <c r="I48" t="n">
-        <v>544979.4615877988</v>
+        <v>3912100.528019831</v>
       </c>
       <c r="J48" t="n">
-        <v>548063.9020948485</v>
+        <v>3922192.563488968</v>
       </c>
       <c r="K48" t="n">
-        <v>550991.2642987613</v>
+        <v>3931771.272943854</v>
       </c>
       <c r="L48" t="n">
-        <v>553770.9251816012</v>
+        <v>3940866.396348208</v>
       </c>
       <c r="M48" t="n">
-        <v>556411.6586020067</v>
+        <v>3949505.856991239</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>647990.3143578097</v>
+        <v>480434.4556894107</v>
       </c>
       <c r="C49" t="n">
-        <v>649082.4277852471</v>
+        <v>482803.9958576951</v>
       </c>
       <c r="D49" t="n">
-        <v>650103.5945266103</v>
+        <v>485041.7602733253</v>
       </c>
       <c r="E49" t="n">
-        <v>651059.0520783705</v>
+        <v>487156.326413176</v>
       </c>
       <c r="F49" t="n">
-        <v>651953.6070222105</v>
+        <v>489155.6535695707</v>
       </c>
       <c r="G49" t="n">
-        <v>652791.6732833553</v>
+        <v>491047.1306294128</v>
       </c>
       <c r="H49" t="n">
-        <v>653577.3068720391</v>
+        <v>492837.6199145783</v>
       </c>
       <c r="I49" t="n">
-        <v>654314.2374167009</v>
+        <v>494533.4974412583</v>
       </c>
       <c r="J49" t="n">
-        <v>655005.8967789016</v>
+        <v>496140.6899194764</v>
       </c>
       <c r="K49" t="n">
-        <v>655655.4450189183</v>
+        <v>497664.708777546</v>
       </c>
       <c r="L49" t="n">
-        <v>656265.7939592078</v>
+        <v>499110.6814704267</v>
       </c>
       <c r="M49" t="n">
-        <v>656839.62857165</v>
+        <v>500483.380301767</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1441499.820296917</v>
+        <v>1767897.935909282</v>
       </c>
       <c r="C50" t="n">
-        <v>1448857.386804393</v>
+        <v>1781574.243137203</v>
       </c>
       <c r="D50" t="n">
-        <v>1455794.231643131</v>
+        <v>1794518.895741522</v>
       </c>
       <c r="E50" t="n">
-        <v>1462338.639568379</v>
+        <v>1806776.19641944</v>
       </c>
       <c r="F50" t="n">
-        <v>1468516.799677018</v>
+        <v>1818387.69725547</v>
       </c>
       <c r="G50" t="n">
-        <v>1474352.967312785</v>
+        <v>1829392.348954439</v>
       </c>
       <c r="H50" t="n">
-        <v>1479869.613777101</v>
+        <v>1839826.64708874</v>
       </c>
       <c r="I50" t="n">
-        <v>1485087.56462511</v>
+        <v>1849724.774324033</v>
       </c>
       <c r="J50" t="n">
-        <v>1490026.127304694</v>
+        <v>1859118.737846561</v>
       </c>
       <c r="K50" t="n">
-        <v>1494703.208874781</v>
+        <v>1868038.501444027</v>
       </c>
       <c r="L50" t="n">
-        <v>1499135.424508594</v>
+        <v>1876512.111861549</v>
       </c>
       <c r="M50" t="n">
-        <v>1503338.197452053</v>
+        <v>1884565.819208801</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1873524.562318381</v>
+        <v>1694074.335249484</v>
       </c>
       <c r="C51" t="n">
-        <v>1884465.997426722</v>
+        <v>1708343.19857493</v>
       </c>
       <c r="D51" t="n">
-        <v>1894773.026214277</v>
+        <v>1721871.131213009</v>
       </c>
       <c r="E51" t="n">
-        <v>1904489.077558544</v>
+        <v>1734700.858863145</v>
       </c>
       <c r="F51" t="n">
-        <v>1913654.305628419</v>
+        <v>1746872.678552054</v>
       </c>
       <c r="G51" t="n">
-        <v>1922305.844056707</v>
+        <v>1758424.564202845</v>
       </c>
       <c r="H51" t="n">
-        <v>1930478.041938409</v>
+        <v>1769392.274020225</v>
       </c>
       <c r="I51" t="n">
-        <v>1938202.682441687</v>
+        <v>1779809.458285704</v>
       </c>
       <c r="J51" t="n">
-        <v>1945509.184915002</v>
+        <v>1789707.766408123</v>
       </c>
       <c r="K51" t="n">
-        <v>1952424.791441018</v>
+        <v>1799116.952310845</v>
       </c>
       <c r="L51" t="n">
-        <v>1958974.738807181</v>
+        <v>1808064.977417633</v>
       </c>
       <c r="M51" t="n">
-        <v>1965182.416863775</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2333145.915965751</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2335562.03290274</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2337837.81036254</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2339982.545756134</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2342004.857748979</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2343912.739295614</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2345713.606341057</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2347414.342548013</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2349021.340381059</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2350540.538852499</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2351977.458210704</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2353337.231826833</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1373431.888289493</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1383656.84099371</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1393303.57101787</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1402409.816911233</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1411010.727989226</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1419139.027085109</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1426825.167905433</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1434097.485987003</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1440982.342597203</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1447504.261182628</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1453686.056181949</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1459548.954181404</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1280969.163602604</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1284071.762814121</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1286995.35765294</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1289751.500102174</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1292350.957148463</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1294803.76227446</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1297119.264303418</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1299306.173580736</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1301372.605511622</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1303326.121504134</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1305173.767388331</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1306922.109398608</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3815104.625981307</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3818090.402047255</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3820851.255606505</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3823405.71449664</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3825770.604565462</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3827961.221319679</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3829991.482798846</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3831874.06589916</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3833620.528078765</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3835241.416135986</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3836746.363536173</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3838144.177582167</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3211496.798129749</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3218566.613124195</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3225227.102797929</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3231505.041302003</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3237425.331545688</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3243011.135804109</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3248283.998219749</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3253263.959486503</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3257969.664038859</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3262418.460084584</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3266626.492838085</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3270608.791311346</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4231402.703531854</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4240777.545092538</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4249609.255649686</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4257935.16246758</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4265789.652956396</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4273204.43718468</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4280208.783565555</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4286829.730899438</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4293092.279522039</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4299019.563935429</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4304633.008984137</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4309952.471371837</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4369968.827597179</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4380424.48768964</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4390277.009560481</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4399565.241663206</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4408325.398656093</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4416591.234178681</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4424394.20458024</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4431763.623611432</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4438726.808195826</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4445309.215479169</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4451534.571416445</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4457424.991205558</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2535510.090186888</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2540613.810730383</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2545411.978618022</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2549924.552957704</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2554170.118750803</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2558165.981239209</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2561928.254274774</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2565471.943018142</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2568811.021256499</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2571958.503632076</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2574926.513053454</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2577726.343563009</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3452140.774672069</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3458322.618681893</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3464138.262942307</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3469611.618901446</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3474764.942802552</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3479618.950823892</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3484192.926700205</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3488504.822244812</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3492571.351172214</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3496408.076602701</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3500029.49261672</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3503449.100207649</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2730329.630926767</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2731570.769157303</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2732734.664621614</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2733825.612641504</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2734847.701193342</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2735804.818169219</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2736700.658143384</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2737538.728894934</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2738322.357840773</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2739054.698467296</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2739738.736800585</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2740377.297925346</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4979859.456850518</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4982154.22903255</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4984285.828355141</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4986264.80523395</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4988101.044470184</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4989803.80534697</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4991381.759119868</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4992843.024248686</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4994195.199620526</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4995445.395949714</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4996600.265488766</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4997666.03015751</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2597389.467267931</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2599894.282858025</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2602259.436101396</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2604492.595730681</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2606601.054206941</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2608591.739287354</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2610471.225801442</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2612245.747703519</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2613921.210403338</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2615503.203335136</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2616997.012698382</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2618407.634294063</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2090270.374598606</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2089298.228532285</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2088350.670462135</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2087427.371554571</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2086527.917561149</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2085651.829032563</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2084798.577954267</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2083967.601385554</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2083158.312596133</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2082370.110115175</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2081602.385045199</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2080854.526934464</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1104870.760963067</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1116932.744626783</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1128381.556603491</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1139250.866058134</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1149572.679113798</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1159377.367999934</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1168693.710860163</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1177548.939675294</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1185968.794169925</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1193977.579925455</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1201598.229225487</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1208852.363430485</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>3698052.683186449</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3711982.766722381</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3725169.432153754</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3737656.391397372</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3749484.796402946</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3760693.362042844</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3771318.488242969</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3781394.380391106</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3790953.167229854</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3800025.015601188</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3808638.241539754</v>
-      </c>
-      <c r="M66" t="n">
-        <v>3816819.417340696</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>467688.0820977725</v>
-      </c>
-      <c r="C67" t="n">
-        <v>470124.9504268365</v>
-      </c>
-      <c r="D67" t="n">
-        <v>472426.3572125304</v>
-      </c>
-      <c r="E67" t="n">
-        <v>474601.1226028353</v>
-      </c>
-      <c r="F67" t="n">
-        <v>476657.4309055731</v>
-      </c>
-      <c r="G67" t="n">
-        <v>478602.8796010353</v>
-      </c>
-      <c r="H67" t="n">
-        <v>480444.5243757553</v>
-      </c>
-      <c r="I67" t="n">
-        <v>482188.92052026</v>
-      </c>
-      <c r="J67" t="n">
-        <v>483842.1610015854</v>
-      </c>
-      <c r="K67" t="n">
-        <v>485409.911493035</v>
-      </c>
-      <c r="L67" t="n">
-        <v>486897.4426170513</v>
-      </c>
-      <c r="M67" t="n">
-        <v>488309.6596333105</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1685902.347763054</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1699451.763296083</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1712280.286004126</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1724431.178685188</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1735945.062463991</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1746860.054061353</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1757211.901424371</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1767034.116527781</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1776358.104436725</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1785213.28795927</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1793627.227406241</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1801625.735138491</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1593177.884284437</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1606952.234726638</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1620014.260053307</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1632404.790220626</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1644162.357775018</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1655323.294961065</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1665921.833030924</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1675990.202355281</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1685558.732187875</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1694655.949162178</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1703308.673780546</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1711542.114322342</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1886790.811977074</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1897974.580864415</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1908591.042481914</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1918672.969182149</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1928251.056472138</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1937354.073755175</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1946009.000490963</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1954241.149803862</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1962074.281229421</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1969530.704011589</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1976631.37211518</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1983395.971935079</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>14333746.44949517</v>
-      </c>
-      <c r="C71" t="n">
-        <v>14396731.56635553</v>
-      </c>
-      <c r="D71" t="n">
-        <v>14456421.23536807</v>
-      </c>
-      <c r="E71" t="n">
-        <v>14513001.2518968</v>
-      </c>
-      <c r="F71" t="n">
-        <v>14566647.60899451</v>
-      </c>
-      <c r="G71" t="n">
-        <v>14617526.79619879</v>
-      </c>
-      <c r="H71" t="n">
-        <v>14665796.13241529</v>
-      </c>
-      <c r="I71" t="n">
-        <v>14711604.12291539</v>
-      </c>
-      <c r="J71" t="n">
-        <v>14755090.83215451</v>
-      </c>
-      <c r="K71" t="n">
-        <v>14796388.2654843</v>
-      </c>
-      <c r="L71" t="n">
-        <v>14835620.75409395</v>
-      </c>
-      <c r="M71" t="n">
-        <v>14872905.33861887</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4505372.55186303</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4508636.468875512</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4511530.9977815</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4514096.431977183</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4516368.595215648</v>
-      </c>
-      <c r="G72" t="n">
-        <v>4518379.33406689</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4520156.959252417</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4521726.640259683</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4523110.757474072</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4524329.215863235</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4525399.724021465</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4526338.04208605</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>3703573.200175345</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3731293.360815942</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3757634.564343065</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3782671.684700936</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3806475.654575169</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3829113.627345622</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3850649.138165355</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3871142.26365456</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3890649.779645294</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3909225.316420972</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3926919.510904759</v>
-      </c>
-      <c r="M73" t="n">
-        <v>3943780.155312598</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16514951.3057455</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16513470.08821414</v>
-      </c>
-      <c r="D74" t="n">
-        <v>16511904.94373102</v>
-      </c>
-      <c r="E74" t="n">
-        <v>16510267.99348286</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16508569.79181576</v>
-      </c>
-      <c r="G74" t="n">
-        <v>16506819.5561298</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16505025.35994074</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16503194.29516596</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16501332.60869098</v>
-      </c>
-      <c r="K74" t="n">
-        <v>16499445.81747648</v>
-      </c>
-      <c r="L74" t="n">
-        <v>16497538.80576029</v>
-      </c>
-      <c r="M74" t="n">
-        <v>16495615.90732498</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>19401452.47987783</v>
-      </c>
-      <c r="C75" t="n">
-        <v>19474217.97355279</v>
-      </c>
-      <c r="D75" t="n">
-        <v>19542904.7187629</v>
-      </c>
-      <c r="E75" t="n">
-        <v>19607775.44898283</v>
-      </c>
-      <c r="F75" t="n">
-        <v>19669074.7139256</v>
-      </c>
-      <c r="G75" t="n">
-        <v>19727030.13875428</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19781853.60586989</v>
-      </c>
-      <c r="I75" t="n">
-        <v>19833742.36196142</v>
-      </c>
-      <c r="J75" t="n">
-        <v>19882880.0532952</v>
-      </c>
-      <c r="K75" t="n">
-        <v>19929437.69244045</v>
-      </c>
-      <c r="L75" t="n">
-        <v>19973574.55976421</v>
-      </c>
-      <c r="M75" t="n">
-        <v>20015439.04311836</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3049944.972769976</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3087764.945614636</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3123777.354631156</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3158071.643268734</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3190733.775037706</v>
-      </c>
-      <c r="G76" t="n">
-        <v>3221846.175027639</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3251487.711951524</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3279733.713690281</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3306656.010217249</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3332322.998592108</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3356799.725444108</v>
-      </c>
-      <c r="M76" t="n">
-        <v>3380147.983019948</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>5813752.871845722</v>
-      </c>
-      <c r="C77" t="n">
-        <v>5882865.937266767</v>
-      </c>
-      <c r="D77" t="n">
-        <v>5948564.671197653</v>
-      </c>
-      <c r="E77" t="n">
-        <v>6011027.04322058</v>
-      </c>
-      <c r="F77" t="n">
-        <v>6070423.292941034</v>
-      </c>
-      <c r="G77" t="n">
-        <v>6126915.907435834</v>
-      </c>
-      <c r="H77" t="n">
-        <v>6180659.675718784</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6231801.805190444</v>
-      </c>
-      <c r="J77" t="n">
-        <v>6280482.087152064</v>
-      </c>
-      <c r="K77" t="n">
-        <v>6326833.100335866</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6370980.443105489</v>
-      </c>
-      <c r="M77" t="n">
-        <v>6413042.986452281</v>
+        <v>1816578.110669963</v>
       </c>
     </row>
   </sheetData>
